--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcaci\IdeaProjects\ProiectJava\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF112CF-86C5-4331-93FA-0B8067A9F298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7C8DFA-E233-40FB-B4EB-D188D1F39ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,15 +39,9 @@
     <t>PSG</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristaino </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ronaldo </t>
   </si>
   <si>
-    <t>Agent Liber</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sergio </t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Echipa</t>
+  </si>
+  <si>
+    <t>Al-Nassr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiano </t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,19 +412,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,10 +446,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -458,21 +458,21 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -480,19 +480,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
